--- a/InputForAimTraining/MasterAimTrainingDataSet.xlsx
+++ b/InputForAimTraining/MasterAimTrainingDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owen\Desktop\Projects\InputForAimTraining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owen\Desktop\Projects\Githubs\Kovaak-Aim-Training-Data-To-Excel\InputForAimTraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41223752-396D-42A0-89B1-AD01CC91AD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195E6BBD-5B20-4AC2-B981-80F6C387619C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="841" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="4395" windowWidth="21840" windowHeight="13740" tabRatio="841" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CloseLongStrafesInvincible" sheetId="1" r:id="rId1"/>
